--- a/DataDictionary_Project.xlsx
+++ b/DataDictionary_Project.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sierr\Desktop\Spring 2023\CIS 4400\Project_7\Data_Analyst_Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EB3BF0-4F44-4EA3-B2E9-66ECC6497AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E200B62-4EB3-40A8-A644-28CE3155FE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{FA4D5561-DAE1-4F87-9E3D-D36F74ACEBEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Data Dictionary</t>
   </si>
@@ -207,13 +207,37 @@
   </si>
   <si>
     <t xml:space="preserve">other details employer should be aware of </t>
+  </si>
+  <si>
+    <t>designated market area</t>
+  </si>
+  <si>
+    <t>compensation</t>
+  </si>
+  <si>
+    <t>compensation from sales</t>
+  </si>
+  <si>
+    <t>salary negociated from salary</t>
+  </si>
+  <si>
+    <t>Name of the company</t>
+  </si>
+  <si>
+    <t>Information on company</t>
+  </si>
+  <si>
+    <t>lump sum of stocks for employee</t>
+  </si>
+  <si>
+    <t>Level at current position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,13 +245,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -242,8 +311,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,7 +650,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,10 +659,11 @@
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -595,7 +674,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -603,7 +682,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -611,223 +690,250 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <conditionalFormatting sqref="B2:B36">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>""</formula>

--- a/DataDictionary_Project.xlsx
+++ b/DataDictionary_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sierr\Desktop\Spring 2023\CIS 4400\Project_7\Data_Analyst_Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E200B62-4EB3-40A8-A644-28CE3155FE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D19476-E444-4462-B8D6-2B9AFE8BF7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{FA4D5561-DAE1-4F87-9E3D-D36F74ACEBEC}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
